--- a/cases/Bergerac Systems - The Challenge of Backward Integration, Spreadsheet Supplement.xlsx
+++ b/cases/Bergerac Systems - The Challenge of Backward Integration, Spreadsheet Supplement.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sxiao/Developer/UIUC-BADM567-Process-Management/cases/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{73AC0B84-9FB9-CD47-8525-CF38DA2BBE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="19320" windowHeight="9525"/>
+    <workbookView xWindow="-33540" yWindow="500" windowWidth="32600" windowHeight="20880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exhibit 1 - Market Data" sheetId="1" r:id="rId1"/>
@@ -13,12 +19,26 @@
     <sheet name="Exhibit 4 - Proposal" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{EFBE3071-28B5-B948-A4E3-171BEC7CB2FF}" mergeInterval="0" personalView="1" xWindow="-1677" yWindow="25" windowWidth="1630" windowHeight="1044" activeSheetId="4"/>
+    <customWorkbookView name="DeRocco, Mike - Personal View" guid="{CE293B06-7009-4BB8-8F01-017503554FA1}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="809" activeSheetId="4"/>
+    <customWorkbookView name="Lenovo User - Personal View" guid="{109AAEB2-61FC-4F63-8891-83BCCEFC65EE}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1276" windowHeight="579" activeSheetId="4"/>
     <customWorkbookView name="mlehmbeck - Personal View" guid="{33F5A827-26E5-42CE-A4A0-40E081EB0DA5}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1269" windowHeight="706" activeSheetId="1"/>
-    <customWorkbookView name="Lenovo User - Personal View" guid="{109AAEB2-61FC-4F63-8891-83BCCEFC65EE}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1276" windowHeight="579" activeSheetId="4"/>
-    <customWorkbookView name="DeRocco, Mike - Personal View" guid="{CE293B06-7009-4BB8-8F01-017503554FA1}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="809" activeSheetId="4"/>
   </customWorkbookViews>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -409,7 +429,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -418,7 +438,7 @@
     <numFmt numFmtId="167" formatCode="[$$-409]#,##0.00_);\([$$-409]#,##0.00\)"/>
     <numFmt numFmtId="168" formatCode="[$$-409]#,##0.000_);\([$$-409]#,##0.000\)"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,7 +626,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -635,14 +655,11 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -682,7 +699,7 @@
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -728,7 +745,7 @@
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -736,76 +753,16 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{E0BD5318-D808-443C-B76B-38BA4AE86BE1}" diskRevisions="1" revisionId="8" version="3">
-  <header guid="{6B5748C6-54C1-4329-BE0D-41A5E4BA7E52}" dateTime="2011-11-22T09:04:24" maxSheetId="6" userName="Lenovo User" r:id="rId1">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{FC045D0C-69DF-47D0-8AD9-4E568A3BF830}" dateTime="2011-11-22T09:05:08" maxSheetId="6" userName="Lenovo User" r:id="rId2" minRId="1">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{4D34FB8C-71E7-41A5-A825-CBB8299033E9}" dateTime="2011-11-22T09:18:35" maxSheetId="6" userName="Lenovo User" r:id="rId3" minRId="2" maxRId="3">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{F3E585B7-2609-4153-99D9-36AAD4A1CD43}" dateTime="2011-12-01T18:12:13" maxSheetId="6" userName="Lenovo User" r:id="rId4" minRId="4" maxRId="5">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{ADE928AF-4FD2-414E-9C40-20CC35B1EF4F}" dateTime="2011-12-01T18:26:10" maxSheetId="6" userName="Lenovo User" r:id="rId5" minRId="6" maxRId="7">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{E1109EEC-5AFD-4E65-B005-0785AB29976F}" dateTime="2011-12-01T18:31:28" maxSheetId="6" userName="Lenovo User" r:id="rId6" minRId="8">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{A90C2ED3-423B-41C5-B9B1-47746687C59B}" dateTime="2011-12-01T11:42:37" maxSheetId="6" userName="DeRocco, Mike" r:id="rId7">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{E0BD5318-D808-443C-B76B-38BA4AE86BE1}" dateTime="2011-12-14T13:32:26" maxSheetId="6" userName="mlehmbeck" r:id="rId8">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0330C6EB-D920-444E-B8E1-9B1C9CF1798B}" diskRevisions="1" revisionId="8" version="4">
+  <header guid="{0330C6EB-D920-444E-B8E1-9B1C9CF1798B}" dateTime="2023-01-27T17:45:16" maxSheetId="6" userName="Microsoft Office User" r:id="rId9">
     <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -817,145 +774,14 @@
 </headers>
 </file>
 
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{33F5A827-26E5-42CE-A4A0-40E081EB0DA5}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="2" sId="4">
-    <oc r="F25" t="inlineStr">
-      <is>
-        <t>Incl 4 presses @ 75 kw x 24 hrs x 5 days x 50 weeks x $0.15/kwh</t>
-      </is>
-    </oc>
-    <nc r="F25" t="inlineStr">
-      <is>
-        <t>Incl 4 presses @ 75 kw x 24 hrs x 5 days x 50 weeks x ~$0.23/kwh</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="3" sId="4">
-    <oc r="D25" t="inlineStr">
-      <is>
-        <t>Incl 8 presses @ 50 kw x 24 hrs x 5 days x 50 weeks x $0.15/kwh</t>
-      </is>
-    </oc>
-    <nc r="D25" t="inlineStr">
-      <is>
-        <t>Incl 8 presses @ 50 kw x 24 hrs x 5 days x 50 weeks x ~$0.20/kwh</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog111.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="1" sId="4">
-    <oc r="F24" t="inlineStr">
-      <is>
-        <t xml:space="preserve">4 presses @ $490K + $645K aux equip, 8-year straight-line depreciation </t>
-      </is>
-    </oc>
-    <nc r="F24" t="inlineStr">
-      <is>
-        <t xml:space="preserve">4 presses @ $490K + $645K aux equip + $425K installation, 8-year straight-line depreciation </t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog1111.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="8" sId="4">
-    <oc r="F6" t="inlineStr">
-      <is>
-        <t>6 machine operators @ ~$30K, plus profit-sharing bonus in line with company practice</t>
-      </is>
-    </oc>
-    <nc r="F6" t="inlineStr">
-      <is>
-        <t>6 machine operators @ ~$30K, plus profit-sharing bonus in line with current compensation structure</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog121.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="6" sId="4">
-    <oc r="D6" t="inlineStr">
-      <is>
-        <t>2 materials handlers and 8 machine operators @ ~$26K</t>
-      </is>
-    </oc>
-    <nc r="D6" t="inlineStr">
-      <is>
-        <t>12 machine operators @ ~$22K</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="7" sId="4">
-    <oc r="F6" t="inlineStr">
-      <is>
-        <t>2 materials handlers and 4 machine operators @~$38K, incl overtime and night allowances</t>
-      </is>
-    </oc>
-    <nc r="F6" t="inlineStr">
-      <is>
-        <t>6 machine operators @ ~$30K, plus profit-sharing bonus in line with company practice</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog1211.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="4" sId="4">
-    <oc r="D6" t="inlineStr">
-      <is>
-        <t>Materials handlers and machine operators</t>
-      </is>
-    </oc>
-    <nc r="D6" t="inlineStr">
-      <is>
-        <t>2 materials handlers and 8 machine operators @ ~$26K</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="5" sId="4">
-    <oc r="F6" t="inlineStr">
-      <is>
-        <t>Materials handlers and machine operators</t>
-      </is>
-    </oc>
-    <nc r="F6" t="inlineStr">
-      <is>
-        <t>2 materials handlers and 4 machine operators @~$38K, incl overtime and night allowances</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{CE293B06-7009-4BB8-8F01-017503554FA1}" action="add"/>
+  <rcv guid="{EFBE3071-28B5-B948-A4E3-171BEC7CB2FF}" action="add"/>
 </revisions>
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="0"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1001,7 +827,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1033,9 +859,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1067,6 +911,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1242,22 +1104,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" style="9" customWidth="1"/>
-    <col min="3" max="6" width="15.7109375" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="3.6640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="9" customWidth="1"/>
+    <col min="3" max="6" width="15.6640625" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="7"/>
       <c r="B1" s="7" t="s">
         <v>68</v>
@@ -1267,7 +1129,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C3" s="2">
         <v>2008</v>
       </c>
@@ -1281,7 +1143,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
         <v>72</v>
       </c>
@@ -1298,7 +1160,7 @@
         <v>14.11</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5" s="9" t="s">
         <v>74</v>
       </c>
@@ -1315,635 +1177,657 @@
         <v>8.4550345887778544E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B8" s="11" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{33F5A827-26E5-42CE-A4A0-40E081EB0DA5}" showGridLines="0">
+    <customSheetView guid="{EFBE3071-28B5-B948-A4E3-171BEC7CB2FF}" scale="199" showGridLines="0">
+      <selection activeCell="H11" sqref="H11"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+      <headerFooter>
+        <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Internal</oddFooter>
+      </headerFooter>
+    </customSheetView>
+    <customSheetView guid="{CE293B06-7009-4BB8-8F01-017503554FA1}" showGridLines="0">
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{109AAEB2-61FC-4F63-8891-83BCCEFC65EE}" showGridLines="0">
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
+      <pageSetup orientation="portrait" r:id="rId3"/>
+    </customSheetView>
+    <customSheetView guid="{33F5A827-26E5-42CE-A4A0-40E081EB0DA5}" showGridLines="0">
+      <selection activeCell="B1" sqref="B1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId4"/>
+    </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Internal</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J100"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" customWidth="1"/>
+    <col min="3" max="7" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="19">
+        <v>2009</v>
+      </c>
+      <c r="D3" s="19">
+        <v>2008</v>
+      </c>
+      <c r="E3" s="19">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="13"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="17">
+        <v>66248</v>
+      </c>
+      <c r="D5" s="17">
+        <v>56044</v>
+      </c>
+      <c r="E5" s="17">
+        <v>48200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B6" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="24">
+        <v>26109</v>
+      </c>
+      <c r="D6" s="24">
+        <v>22008</v>
+      </c>
+      <c r="E6" s="24">
+        <v>18362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="23">
+        <v>40139</v>
+      </c>
+      <c r="D7" s="23">
+        <v>34036</v>
+      </c>
+      <c r="E7" s="23">
+        <v>29838</v>
+      </c>
+      <c r="J7" s="22"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="17">
+        <v>6020</v>
+      </c>
+      <c r="D10" s="17">
+        <v>4464</v>
+      </c>
+      <c r="E10" s="17">
+        <v>4176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="17">
+        <v>17784</v>
+      </c>
+      <c r="D11" s="17">
+        <v>16272</v>
+      </c>
+      <c r="E11" s="17">
+        <v>14256</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B12" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="24">
+        <v>4952</v>
+      </c>
+      <c r="D12" s="24">
+        <v>4248</v>
+      </c>
+      <c r="E12" s="24">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="23">
+        <v>28756</v>
+      </c>
+      <c r="D13" s="23">
+        <v>24984</v>
+      </c>
+      <c r="E13" s="23">
+        <v>22392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="20"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="23">
+        <v>11383</v>
+      </c>
+      <c r="D15" s="23">
+        <v>9052</v>
+      </c>
+      <c r="E15" s="23">
+        <v>7446</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B16" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="24">
+        <v>-576</v>
+      </c>
+      <c r="D16" s="24">
+        <v>-432</v>
+      </c>
+      <c r="E16" s="24">
+        <v>-360</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="25"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="23">
+        <v>10807</v>
+      </c>
+      <c r="D17" s="23">
+        <v>8620</v>
+      </c>
+      <c r="E17" s="23">
+        <v>7086</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="B18" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="24">
+        <v>4191</v>
+      </c>
+      <c r="D18" s="24">
+        <v>3361.8</v>
+      </c>
+      <c r="E18" s="24">
+        <v>2763.54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="23">
+        <v>6616</v>
+      </c>
+      <c r="D19" s="23">
+        <v>5258.2</v>
+      </c>
+      <c r="E19" s="23">
+        <v>4322.46</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="20"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="20"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="20"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="20"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="20"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="20"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="20"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="20"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="20"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="20"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="20"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="20"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="20"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" s="20"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34" s="20"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="20"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="20"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B37" s="20"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B38" s="20"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B39" s="20"/>
+      <c r="C39" s="18"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B40" s="20"/>
+      <c r="D40" s="18"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B41" s="20"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B42" s="20"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B43" s="20"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B44" s="20"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B45" s="20"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B46" s="20"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B47" s="20"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B48" s="20"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="20"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" s="20"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="20"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" s="20"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" s="20"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" s="20"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" s="20"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" s="20"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" s="20"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" s="20"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" s="20"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B60" s="20"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B61" s="20"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B62" s="20"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B63" s="20"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B64" s="20"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B65" s="20"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B66" s="20"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B67" s="20"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B68" s="20"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B69" s="20"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B70" s="20"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B71" s="20"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B72" s="20"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B73" s="20"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B74" s="20"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B75" s="20"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B76" s="20"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B77" s="20"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B78" s="20"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B79" s="20"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B80" s="20"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B81" s="20"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B82" s="20"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B83" s="20"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B84" s="20"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B85" s="20"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B86" s="20"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B87" s="20"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B88" s="20"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B89" s="20"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B90" s="20"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B91" s="20"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B92" s="20"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B93" s="20"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B94" s="20"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B95" s="20"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B96" s="20"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B97" s="20"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B98" s="20"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B99" s="20"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B100" s="20"/>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{EFBE3071-28B5-B948-A4E3-171BEC7CB2FF}" scale="170" showGridLines="0">
+      <selection activeCell="B1" sqref="B1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+      <headerFooter>
+        <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Internal</oddFooter>
+      </headerFooter>
     </customSheetView>
     <customSheetView guid="{CE293B06-7009-4BB8-8F01-017503554FA1}" showGridLines="0">
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{109AAEB2-61FC-4F63-8891-83BCCEFC65EE}" showGridLines="0">
+      <selection activeCell="B1" sqref="B1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
+    </customSheetView>
+    <customSheetView guid="{33F5A827-26E5-42CE-A4A0-40E081EB0DA5}" showGridLines="0">
+      <selection activeCell="B1" sqref="B1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId4"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Internal</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J100"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" customWidth="1"/>
-    <col min="3" max="7" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" customWidth="1"/>
+    <col min="3" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="66.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="20">
+        <v>104</v>
+      </c>
+      <c r="C3" s="19">
         <v>2009</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="19">
         <v>2008</v>
       </c>
-      <c r="E3" s="20">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="B4" s="13"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="B5" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="17">
-        <v>66248</v>
-      </c>
-      <c r="D5" s="17">
-        <v>56044</v>
-      </c>
-      <c r="E5" s="17">
-        <v>48200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="17.25">
-      <c r="B6" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="25">
-        <v>26109</v>
-      </c>
-      <c r="D6" s="25">
-        <v>22008</v>
-      </c>
-      <c r="E6" s="25">
-        <v>18362</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="B7" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="24">
-        <v>40139</v>
-      </c>
-      <c r="D7" s="24">
-        <v>34036</v>
-      </c>
-      <c r="E7" s="24">
-        <v>29838</v>
-      </c>
-      <c r="J7" s="23"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="B8" s="21"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="B9" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="B10" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="17">
-        <v>6020</v>
-      </c>
-      <c r="D10" s="17">
-        <v>4464</v>
-      </c>
-      <c r="E10" s="17">
-        <v>4176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="B11" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="17">
-        <v>17784</v>
-      </c>
-      <c r="D11" s="17">
-        <v>16272</v>
-      </c>
-      <c r="E11" s="17">
-        <v>14256</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="1:10" ht="17.25">
-      <c r="B12" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="25">
-        <v>4952</v>
-      </c>
-      <c r="D12" s="25">
-        <v>4248</v>
-      </c>
-      <c r="E12" s="25">
-        <v>3960</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="B13" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="24">
-        <v>28756</v>
-      </c>
-      <c r="D13" s="24">
-        <v>24984</v>
-      </c>
-      <c r="E13" s="24">
-        <v>22392</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="B14" s="21"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="B15" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="24">
-        <v>11383</v>
-      </c>
-      <c r="D15" s="24">
-        <v>9052</v>
-      </c>
-      <c r="E15" s="24">
-        <v>7446</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="17.25">
-      <c r="B16" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="25">
-        <v>-576</v>
-      </c>
-      <c r="D16" s="25">
-        <v>-432</v>
-      </c>
-      <c r="E16" s="25">
-        <v>-360</v>
-      </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="26"/>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="24">
-        <v>10807</v>
-      </c>
-      <c r="D17" s="24">
-        <v>8620</v>
-      </c>
-      <c r="E17" s="24">
-        <v>7086</v>
-      </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" spans="2:7" ht="17.25">
-      <c r="B18" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="25">
-        <v>4191</v>
-      </c>
-      <c r="D18" s="25">
-        <v>3361.8</v>
-      </c>
-      <c r="E18" s="25">
-        <v>2763.54</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" s="24">
-        <v>6616</v>
-      </c>
-      <c r="D19" s="24">
-        <v>5258.2</v>
-      </c>
-      <c r="E19" s="24">
-        <v>4322.46</v>
-      </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="21"/>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="21"/>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="21"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="21"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="21"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="21"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="21"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="21"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="21"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="21"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="21"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="21"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="21"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="21"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="21"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="21"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="21"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37" s="21"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38" s="21"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="B39" s="21"/>
-      <c r="C39" s="19"/>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40" s="21"/>
-      <c r="D40" s="19"/>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="B41" s="21"/>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="B42" s="21"/>
-    </row>
-    <row r="43" spans="2:7">
-      <c r="B43" s="21"/>
-    </row>
-    <row r="44" spans="2:7">
-      <c r="B44" s="21"/>
-    </row>
-    <row r="45" spans="2:7">
-      <c r="B45" s="21"/>
-    </row>
-    <row r="46" spans="2:7">
-      <c r="B46" s="21"/>
-    </row>
-    <row r="47" spans="2:7">
-      <c r="B47" s="21"/>
-    </row>
-    <row r="48" spans="2:7">
-      <c r="B48" s="21"/>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="21"/>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="21"/>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="21"/>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="21"/>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="21"/>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="21"/>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="21"/>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="21"/>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="21"/>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="21"/>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="21"/>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="21"/>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="21"/>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="21"/>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="21"/>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="21"/>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="21"/>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="21"/>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="21"/>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="21"/>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="21"/>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="21"/>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="21"/>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="21"/>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="21"/>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="21"/>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="21"/>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="21"/>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="21"/>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" s="21"/>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="21"/>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="21"/>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="21"/>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" s="21"/>
-    </row>
-    <row r="83" spans="2:2">
-      <c r="B83" s="21"/>
-    </row>
-    <row r="84" spans="2:2">
-      <c r="B84" s="21"/>
-    </row>
-    <row r="85" spans="2:2">
-      <c r="B85" s="21"/>
-    </row>
-    <row r="86" spans="2:2">
-      <c r="B86" s="21"/>
-    </row>
-    <row r="87" spans="2:2">
-      <c r="B87" s="21"/>
-    </row>
-    <row r="88" spans="2:2">
-      <c r="B88" s="21"/>
-    </row>
-    <row r="89" spans="2:2">
-      <c r="B89" s="21"/>
-    </row>
-    <row r="90" spans="2:2">
-      <c r="B90" s="21"/>
-    </row>
-    <row r="91" spans="2:2">
-      <c r="B91" s="21"/>
-    </row>
-    <row r="92" spans="2:2">
-      <c r="B92" s="21"/>
-    </row>
-    <row r="93" spans="2:2">
-      <c r="B93" s="21"/>
-    </row>
-    <row r="94" spans="2:2">
-      <c r="B94" s="21"/>
-    </row>
-    <row r="95" spans="2:2">
-      <c r="B95" s="21"/>
-    </row>
-    <row r="96" spans="2:2">
-      <c r="B96" s="21"/>
-    </row>
-    <row r="97" spans="2:2">
-      <c r="B97" s="21"/>
-    </row>
-    <row r="98" spans="2:2">
-      <c r="B98" s="21"/>
-    </row>
-    <row r="99" spans="2:2">
-      <c r="B99" s="21"/>
-    </row>
-    <row r="100" spans="2:2">
-      <c r="B100" s="21"/>
-    </row>
-  </sheetData>
-  <customSheetViews>
-    <customSheetView guid="{33F5A827-26E5-42CE-A4A0-40E081EB0DA5}" showGridLines="0">
-      <selection activeCell="B1" sqref="B1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{109AAEB2-61FC-4F63-8891-83BCCEFC65EE}" showGridLines="0">
-      <selection activeCell="B1" sqref="B1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{CE293B06-7009-4BB8-8F01-017503554FA1}" showGridLines="0">
-      <selection activeCell="B1" sqref="B1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId3"/>
-    </customSheetView>
-  </customSheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F40"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" customWidth="1"/>
-    <col min="3" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="66.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="B3" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="20">
-        <v>2009</v>
-      </c>
-      <c r="D3" s="20">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="14" t="s">
         <v>76</v>
       </c>
@@ -1954,7 +1838,7 @@
         <v>16842</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
         <v>77</v>
       </c>
@@ -1965,7 +1849,7 @@
         <v>12218</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
         <v>80</v>
       </c>
@@ -1976,7 +1860,7 @@
         <v>10724</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="14" t="s">
         <v>81</v>
       </c>
@@ -1987,7 +1871,7 @@
         <v>8191</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="14" t="s">
         <v>82</v>
       </c>
@@ -1998,30 +1882,30 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="23">
         <v>56003</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="23">
         <v>49107</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="13"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
         <v>84</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="14" t="s">
         <v>86</v>
       </c>
@@ -2032,7 +1916,7 @@
         <v>7014</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="14" t="s">
         <v>85</v>
       </c>
@@ -2043,7 +1927,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="14" t="s">
         <v>87</v>
       </c>
@@ -2054,44 +1938,44 @@
         <v>408</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="23">
         <v>11630</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="23">
         <v>9504</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="23">
         <v>67633</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="23">
         <v>58611</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="18" t="s">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="14" t="s">
         <v>92</v>
       </c>
       <c r="C23" s="17">
@@ -2101,8 +1985,8 @@
         <v>4525</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="18" t="s">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="14" t="s">
         <v>93</v>
       </c>
       <c r="C24" s="17">
@@ -2112,8 +1996,8 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="18" t="s">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="14" t="s">
         <v>94</v>
       </c>
       <c r="C25" s="17">
@@ -2123,31 +2007,31 @@
         <v>543</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="23">
         <v>8789</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="23">
         <v>7602</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" s="13" t="s">
         <v>96</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
     </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="18" t="s">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="14" t="s">
         <v>94</v>
       </c>
       <c r="C29" s="17">
@@ -2157,8 +2041,8 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="18" t="s">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="14" t="s">
         <v>97</v>
       </c>
       <c r="C30" s="17">
@@ -2168,31 +2052,31 @@
         <v>4525</v>
       </c>
     </row>
-    <row r="31" spans="2:4">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="23">
         <v>6936</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D31" s="23">
         <v>5717</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" s="13"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
     </row>
-    <row r="33" spans="2:4">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="13" t="s">
         <v>99</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
     </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="18" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="14" t="s">
         <v>100</v>
       </c>
       <c r="C34" s="17">
@@ -2202,8 +2086,8 @@
         <v>34884</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="18" t="s">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="14" t="s">
         <v>101</v>
       </c>
       <c r="C35" s="17">
@@ -2213,38 +2097,45 @@
         <v>10408</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="24">
+      <c r="C36" s="23">
         <v>51908</v>
       </c>
-      <c r="D36" s="24">
+      <c r="D36" s="23">
         <v>45292</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
     </row>
-    <row r="38" spans="2:4">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="23">
         <v>67633</v>
       </c>
-      <c r="D38" s="24">
+      <c r="D38" s="23">
         <v>58611</v>
       </c>
     </row>
-    <row r="40" spans="2:4">
-      <c r="C40" s="19"/>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C40" s="18"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{33F5A827-26E5-42CE-A4A0-40E081EB0DA5}" showGridLines="0">
+    <customSheetView guid="{EFBE3071-28B5-B948-A4E3-171BEC7CB2FF}" scale="189" showGridLines="0" topLeftCell="A14">
+      <selection activeCell="B1" sqref="B1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <headerFooter>
+        <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Internal</oddFooter>
+      </headerFooter>
+    </customSheetView>
+    <customSheetView guid="{CE293B06-7009-4BB8-8F01-017503554FA1}" showGridLines="0">
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -2252,911 +2143,922 @@
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{CE293B06-7009-4BB8-8F01-017503554FA1}" showGridLines="0">
+    <customSheetView guid="{33F5A827-26E5-42CE-A4A0-40E081EB0DA5}" showGridLines="0">
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Internal</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" style="30" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" style="32" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="30" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" style="32" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="2.42578125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="2.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="1"/>
-    <col min="19" max="19" width="22.42578125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="1"/>
-    <col min="23" max="23" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="2.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="2.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.1640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.1640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.1640625" style="1"/>
+    <col min="19" max="19" width="22.5" style="1" customWidth="1"/>
+    <col min="20" max="20" width="12.83203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.1640625" style="1"/>
+    <col min="23" max="23" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="6"/>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="29"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="C3" s="48" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="49"/>
+      <c r="F3" s="48"/>
       <c r="G3" s="3"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:13">
-      <c r="B4" s="31" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B4" s="30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="22.5">
-      <c r="B5" s="30" t="s">
+    <row r="5" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="B5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="32">
         <v>236500</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="32">
         <v>242100</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="45">
-      <c r="B6" s="30" t="s">
+    <row r="6" spans="1:13" ht="39" x14ac:dyDescent="0.15">
+      <c r="B6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="32">
         <v>260700</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="32">
         <v>230500</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="42" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="B7" s="30" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B7" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="32">
         <v>646400</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="33">
+      <c r="D7" s="44"/>
+      <c r="E7" s="32">
         <v>614400</v>
       </c>
-      <c r="F7" s="43"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="B8" s="34" t="s">
+      <c r="F7" s="42"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B8" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="34">
         <f>SUM(C5:C7)</f>
         <v>1143600</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="35">
+      <c r="D8" s="43"/>
+      <c r="E8" s="34">
         <f>SUM(E5:E7)</f>
         <v>1087000</v>
       </c>
-      <c r="F8" s="44"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="C9" s="33"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="43"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="B10" s="31" t="s">
+      <c r="F8" s="43"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C9" s="32"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="42"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B10" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="43"/>
-    </row>
-    <row r="11" spans="1:13" ht="22.5">
-      <c r="B11" s="30" t="s">
+      <c r="C10" s="32"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="42"/>
+    </row>
+    <row r="11" spans="1:13" ht="26" x14ac:dyDescent="0.15">
+      <c r="B11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="35">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="35">
         <v>2.4500000000000002</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="22.5">
-      <c r="B12" s="30" t="s">
+    <row r="12" spans="1:13" ht="26" x14ac:dyDescent="0.15">
+      <c r="B12" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="32">
         <v>320</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="32">
         <v>310</v>
       </c>
-      <c r="F12" s="45" t="s">
+      <c r="F12" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="22.5">
-      <c r="B13" s="30" t="s">
+    <row r="13" spans="1:13" ht="26" x14ac:dyDescent="0.15">
+      <c r="B13" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="32">
         <v>4687500</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="32">
         <v>4687500</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="44" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="B14" s="30" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="32">
         <v>1500000</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="33">
+      <c r="D14" s="44"/>
+      <c r="E14" s="32">
         <v>1453125</v>
       </c>
-      <c r="F14" s="43"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="B15" s="34" t="s">
+      <c r="F14" s="42"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B15" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="34">
         <f>C14*C11</f>
         <v>3675000.0000000005</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="35">
+      <c r="D15" s="43"/>
+      <c r="E15" s="34">
         <f>E14*E11</f>
         <v>3560156.2500000005</v>
       </c>
-      <c r="F15" s="44"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="C16" s="33"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="43"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="31" t="s">
+      <c r="F15" s="43"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C16" s="32"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="42"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="43"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="30" t="s">
+      <c r="C17" s="32"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="42"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B18" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="35">
         <v>1.1499999999999999</v>
       </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="36">
+      <c r="D18" s="44"/>
+      <c r="E18" s="35">
         <f>C18</f>
         <v>1.1499999999999999</v>
       </c>
-      <c r="F18" s="45"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="30" t="s">
+      <c r="F18" s="44"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B19" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="32">
         <v>4687500</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="33">
+      <c r="D19" s="44"/>
+      <c r="E19" s="32">
         <v>4687500</v>
       </c>
-      <c r="F19" s="43"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="34" t="s">
+      <c r="F19" s="42"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B20" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="34">
         <f>C19*C18</f>
         <v>5390625</v>
       </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="35">
+      <c r="D20" s="43"/>
+      <c r="E20" s="34">
         <f>E19*E18</f>
         <v>5390625</v>
       </c>
-      <c r="F20" s="44"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="37"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="43"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="31" t="s">
+      <c r="F20" s="43"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B21" s="36"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="42"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B22" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="43"/>
-    </row>
-    <row r="23" spans="2:6" ht="22.5">
-      <c r="B23" s="30" t="s">
+      <c r="C22" s="32"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="42"/>
+    </row>
+    <row r="23" spans="2:6" ht="26" x14ac:dyDescent="0.15">
+      <c r="B23" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="32">
         <v>255000</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="32">
         <v>147900</v>
       </c>
-      <c r="F23" s="43" t="s">
+      <c r="F23" s="42" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="33.75">
-      <c r="B24" s="30" t="s">
+    <row r="24" spans="2:6" ht="39" x14ac:dyDescent="0.15">
+      <c r="B24" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="32">
         <v>315400</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="32">
         <v>378800</v>
       </c>
-      <c r="F24" s="43" t="s">
+      <c r="F24" s="42" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="33.75">
-      <c r="B25" s="30" t="s">
+    <row r="25" spans="2:6" ht="26" x14ac:dyDescent="0.15">
+      <c r="B25" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="32">
         <v>482400</v>
       </c>
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E25" s="32">
         <v>411100</v>
       </c>
-      <c r="F25" s="43" t="s">
+      <c r="F25" s="42" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="30" t="s">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B26" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C26" s="32">
         <v>54900</v>
       </c>
-      <c r="D26" s="43"/>
-      <c r="E26" s="33">
+      <c r="D26" s="42"/>
+      <c r="E26" s="32">
         <v>32800</v>
       </c>
-      <c r="F26" s="43"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="30" t="s">
+      <c r="F26" s="42"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B27" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="33">
+      <c r="C27" s="32">
         <v>213200</v>
       </c>
-      <c r="D27" s="43"/>
-      <c r="E27" s="33">
+      <c r="D27" s="42"/>
+      <c r="E27" s="32">
         <v>57100</v>
       </c>
-      <c r="F27" s="43"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="30" t="s">
+      <c r="F27" s="42"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B28" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="C28" s="33">
+      <c r="C28" s="32">
         <v>108900</v>
       </c>
-      <c r="D28" s="43"/>
-      <c r="E28" s="33">
+      <c r="D28" s="42"/>
+      <c r="E28" s="32">
         <v>45700</v>
       </c>
-      <c r="F28" s="43"/>
-    </row>
-    <row r="29" spans="2:6" ht="33.75">
-      <c r="B29" s="30" t="s">
+      <c r="F28" s="42"/>
+    </row>
+    <row r="29" spans="2:6" ht="26" x14ac:dyDescent="0.15">
+      <c r="B29" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="33">
+      <c r="C29" s="32">
         <v>329700</v>
       </c>
-      <c r="D29" s="43" t="s">
+      <c r="D29" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="33">
+      <c r="E29" s="32">
         <v>0</v>
       </c>
-      <c r="F29" s="43" t="s">
+      <c r="F29" s="42" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="34" t="s">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B30" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="35">
+      <c r="C30" s="34">
         <f>SUM(C23:C29)</f>
         <v>1759500</v>
       </c>
-      <c r="D30" s="44"/>
-      <c r="E30" s="35">
+      <c r="D30" s="43"/>
+      <c r="E30" s="34">
         <f>SUM(E23:E29)</f>
         <v>1073400</v>
       </c>
-      <c r="F30" s="44"/>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="C31" s="33"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="43"/>
-    </row>
-    <row r="32" spans="2:6" ht="37.5" customHeight="1">
-      <c r="B32" s="30" t="s">
+      <c r="F30" s="43"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C31" s="32"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="42"/>
+    </row>
+    <row r="32" spans="2:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C32" s="32">
         <v>0</v>
       </c>
-      <c r="D32" s="43" t="s">
+      <c r="D32" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="33">
+      <c r="E32" s="32">
         <v>90000</v>
       </c>
-      <c r="F32" s="43" t="s">
+      <c r="F32" s="42" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
-      <c r="C33" s="33"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="43"/>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="31" t="s">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C33" s="32"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="42"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B34" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="43"/>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="30" t="s">
+      <c r="C34" s="32"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="42"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B35" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="33">
+      <c r="C35" s="32">
         <f>C8</f>
         <v>1143600</v>
       </c>
-      <c r="D35" s="46"/>
-      <c r="E35" s="33">
+      <c r="D35" s="45"/>
+      <c r="E35" s="32">
         <f>E8</f>
         <v>1087000</v>
       </c>
-      <c r="F35" s="43"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="30" t="s">
+      <c r="F35" s="42"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B36" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="33">
+      <c r="C36" s="32">
         <f>C15</f>
         <v>3675000.0000000005</v>
       </c>
-      <c r="D36" s="46"/>
-      <c r="E36" s="33">
+      <c r="D36" s="45"/>
+      <c r="E36" s="32">
         <f>E15</f>
         <v>3560156.2500000005</v>
       </c>
-      <c r="F36" s="43"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="30" t="s">
+      <c r="F36" s="42"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B37" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="33">
+      <c r="C37" s="32">
         <f>C20</f>
         <v>5390625</v>
       </c>
-      <c r="D37" s="46"/>
-      <c r="E37" s="33">
+      <c r="D37" s="45"/>
+      <c r="E37" s="32">
         <f>E20</f>
         <v>5390625</v>
       </c>
-      <c r="F37" s="43"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="30" t="s">
+      <c r="F37" s="42"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B38" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="33">
+      <c r="C38" s="32">
         <f>C30</f>
         <v>1759500</v>
       </c>
-      <c r="D38" s="46"/>
-      <c r="E38" s="33">
+      <c r="D38" s="45"/>
+      <c r="E38" s="32">
         <f>E30</f>
         <v>1073400</v>
       </c>
-      <c r="F38" s="43"/>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="30" t="s">
+      <c r="F38" s="42"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="33">
+      <c r="C39" s="32">
         <f>C32</f>
         <v>0</v>
       </c>
-      <c r="D39" s="43"/>
-      <c r="E39" s="33">
+      <c r="D39" s="42"/>
+      <c r="E39" s="32">
         <f>E32</f>
         <v>90000</v>
       </c>
-      <c r="F39" s="43"/>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="34" t="s">
+      <c r="F39" s="42"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B40" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="35">
+      <c r="C40" s="34">
         <f>SUM(C35:C39)</f>
         <v>11968725</v>
       </c>
-      <c r="D40" s="44"/>
-      <c r="E40" s="35">
+      <c r="D40" s="43"/>
+      <c r="E40" s="34">
         <f>SUM(E35:E39)</f>
         <v>11201181.25</v>
       </c>
-      <c r="F40" s="44"/>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="C41" s="33"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="43"/>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="30" t="s">
+      <c r="F40" s="43"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C41" s="32"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="42"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B42" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="33">
+      <c r="C42" s="32">
         <f>C13</f>
         <v>4687500</v>
       </c>
-      <c r="D42" s="45"/>
-      <c r="E42" s="33">
+      <c r="D42" s="44"/>
+      <c r="E42" s="32">
         <f>E13</f>
         <v>4687500</v>
       </c>
-      <c r="F42" s="43"/>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="C43" s="33"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="43"/>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="34" t="s">
+      <c r="F42" s="42"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C43" s="32"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="42"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B44" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="38">
+      <c r="C44" s="37">
         <f>C40/C42</f>
         <v>2.553328</v>
       </c>
-      <c r="D44" s="44"/>
-      <c r="E44" s="38">
+      <c r="D44" s="43"/>
+      <c r="E44" s="37">
         <f>E40/E42</f>
         <v>2.3895853333333332</v>
       </c>
-      <c r="F44" s="44"/>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="C45" s="39"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="43"/>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="30" t="s">
+      <c r="F44" s="43"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C45" s="38"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="42"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B46" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="40">
+      <c r="C46" s="39">
         <v>2.96</v>
       </c>
-      <c r="D46" s="45"/>
-      <c r="E46" s="40">
+      <c r="D46" s="44"/>
+      <c r="E46" s="39">
         <v>2.96</v>
       </c>
-      <c r="F46" s="43"/>
-    </row>
-    <row r="47" spans="2:6" ht="33.75">
-      <c r="B47" s="30" t="s">
+      <c r="F46" s="42"/>
+    </row>
+    <row r="47" spans="2:6" ht="39" x14ac:dyDescent="0.15">
+      <c r="B47" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="40">
+      <c r="C47" s="39">
         <v>2.7029999999999998</v>
       </c>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="E47" s="40">
+      <c r="E47" s="39">
         <f>E44</f>
         <v>2.3895853333333332</v>
       </c>
-      <c r="F47" s="43" t="s">
+      <c r="F47" s="42" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="30" t="s">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B48" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="40">
+      <c r="C48" s="39">
         <f>C46-C47</f>
         <v>0.25700000000000012</v>
       </c>
-      <c r="D48" s="45"/>
-      <c r="E48" s="40">
+      <c r="D48" s="44"/>
+      <c r="E48" s="39">
         <f>E46-E47</f>
         <v>0.57041466666666674</v>
       </c>
-      <c r="F48" s="43"/>
-    </row>
-    <row r="49" spans="2:6">
-      <c r="B49" s="34" t="s">
+      <c r="F48" s="42"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B49" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="35">
+      <c r="C49" s="34">
         <f>C42*C48</f>
         <v>1204687.5000000005</v>
       </c>
-      <c r="D49" s="44"/>
-      <c r="E49" s="35">
+      <c r="D49" s="43"/>
+      <c r="E49" s="34">
         <f>E42*E48</f>
         <v>2673818.7500000005</v>
       </c>
-      <c r="F49" s="44"/>
-    </row>
-    <row r="50" spans="2:6">
-      <c r="C50" s="33"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="43"/>
-    </row>
-    <row r="51" spans="2:6">
-      <c r="B51" s="31" t="s">
+      <c r="F49" s="43"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C50" s="32"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="42"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B51" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C51" s="33"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="43"/>
-    </row>
-    <row r="52" spans="2:6">
-      <c r="B52" s="30" t="s">
+      <c r="C51" s="32"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="42"/>
+    </row>
+    <row r="52" spans="2:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="B52" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="33">
+      <c r="C52" s="32">
         <v>5750000</v>
       </c>
-      <c r="D52" s="45" t="s">
+      <c r="D52" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="E52" s="33">
+      <c r="E52" s="32">
         <v>0</v>
       </c>
-      <c r="F52" s="43"/>
-    </row>
-    <row r="53" spans="2:6">
-      <c r="B53" s="30" t="s">
+      <c r="F52" s="42"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B53" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="33">
+      <c r="C53" s="32">
         <v>0</v>
       </c>
-      <c r="D53" s="45"/>
-      <c r="E53" s="33">
+      <c r="D53" s="44"/>
+      <c r="E53" s="32">
         <v>3182000</v>
       </c>
-      <c r="F53" s="43"/>
-    </row>
-    <row r="54" spans="2:6" ht="22.5">
-      <c r="B54" s="41" t="s">
+      <c r="F53" s="42"/>
+    </row>
+    <row r="54" spans="2:6" ht="26" x14ac:dyDescent="0.15">
+      <c r="B54" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C54" s="33">
+      <c r="C54" s="32">
         <v>0</v>
       </c>
-      <c r="D54" s="45"/>
-      <c r="E54" s="33">
+      <c r="D54" s="44"/>
+      <c r="E54" s="32">
         <v>375000</v>
       </c>
-      <c r="F54" s="43" t="s">
+      <c r="F54" s="42" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="2:6" ht="22.5">
-      <c r="B55" s="41" t="s">
+    <row r="55" spans="2:6" ht="26" x14ac:dyDescent="0.15">
+      <c r="B55" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="33">
+      <c r="C55" s="32">
         <v>0</v>
       </c>
-      <c r="D55" s="45"/>
-      <c r="E55" s="33">
+      <c r="D55" s="44"/>
+      <c r="E55" s="32">
         <v>115000</v>
       </c>
-      <c r="F55" s="43" t="s">
+      <c r="F55" s="42" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="2:6">
-      <c r="B56" s="41" t="s">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B56" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C56" s="33">
+      <c r="C56" s="32">
         <v>0</v>
       </c>
-      <c r="D56" s="45"/>
-      <c r="E56" s="33">
+      <c r="D56" s="44"/>
+      <c r="E56" s="32">
         <v>4</v>
       </c>
-      <c r="F56" s="43"/>
-    </row>
-    <row r="57" spans="2:6">
-      <c r="B57" s="41" t="s">
+      <c r="F56" s="42"/>
+    </row>
+    <row r="57" spans="2:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="B57" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="33">
+      <c r="C57" s="32">
         <v>0</v>
       </c>
-      <c r="D57" s="45"/>
-      <c r="E57" s="33">
+      <c r="D57" s="44"/>
+      <c r="E57" s="32">
         <v>425000</v>
       </c>
-      <c r="F57" s="43" t="s">
+      <c r="F57" s="42" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="2:6">
-      <c r="B58" s="41" t="s">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B58" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C58" s="33">
+      <c r="C58" s="32">
         <v>0</v>
       </c>
-      <c r="D58" s="45"/>
-      <c r="E58" s="33">
+      <c r="D58" s="44"/>
+      <c r="E58" s="32">
         <v>645000</v>
       </c>
-      <c r="F58" s="43"/>
-    </row>
-    <row r="59" spans="2:6" ht="22.5">
-      <c r="B59" s="41" t="s">
+      <c r="F58" s="42"/>
+    </row>
+    <row r="59" spans="2:6" ht="26" x14ac:dyDescent="0.15">
+      <c r="B59" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="33">
+      <c r="C59" s="32">
         <v>0</v>
       </c>
-      <c r="D59" s="45"/>
-      <c r="E59" s="33">
+      <c r="D59" s="44"/>
+      <c r="E59" s="32">
         <v>152000</v>
       </c>
-      <c r="F59" s="46" t="s">
+      <c r="F59" s="45" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="2:6">
-      <c r="B60" s="30" t="s">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B60" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C60" s="33">
+      <c r="C60" s="32">
         <v>0</v>
       </c>
-      <c r="D60" s="45"/>
-      <c r="E60" s="33">
+      <c r="D60" s="44"/>
+      <c r="E60" s="32">
         <v>425000</v>
       </c>
-      <c r="F60" s="43"/>
-    </row>
-    <row r="61" spans="2:6">
-      <c r="B61" s="34" t="s">
+      <c r="F60" s="42"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B61" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="35">
+      <c r="C61" s="34">
         <f>C60+C53+C52</f>
         <v>5750000</v>
       </c>
-      <c r="D61" s="44"/>
-      <c r="E61" s="35">
+      <c r="D61" s="43"/>
+      <c r="E61" s="34">
         <f>E60+E53+E52</f>
         <v>3607000</v>
       </c>
-      <c r="F61" s="44"/>
-    </row>
-    <row r="62" spans="2:6">
-      <c r="C62" s="33"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="43"/>
-    </row>
-    <row r="63" spans="2:6">
-      <c r="B63" s="30" t="s">
+      <c r="F61" s="43"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C62" s="32"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="42"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B63" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="40">
+      <c r="C63" s="39">
         <f>C48</f>
         <v>0.25700000000000012</v>
       </c>
-      <c r="D63" s="45"/>
-      <c r="E63" s="40">
+      <c r="D63" s="44"/>
+      <c r="E63" s="39">
         <f>E48</f>
         <v>0.57041466666666674</v>
       </c>
-      <c r="F63" s="43"/>
-    </row>
-    <row r="64" spans="2:6">
-      <c r="B64" s="30" t="s">
+      <c r="F63" s="42"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B64" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C64" s="33">
+      <c r="C64" s="32">
         <f>C61/C48</f>
         <v>22373540.85603112</v>
       </c>
-      <c r="D64" s="43"/>
-      <c r="E64" s="33">
+      <c r="D64" s="42"/>
+      <c r="E64" s="32">
         <f>E61/E48</f>
         <v>6323469.9435030883</v>
       </c>
-      <c r="F64" s="43"/>
-    </row>
-    <row r="65" spans="2:6">
-      <c r="B65" s="30" t="s">
+      <c r="F64" s="42"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B65" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="33">
+      <c r="C65" s="32">
         <f>C42</f>
         <v>4687500</v>
       </c>
-      <c r="D65" s="43"/>
-      <c r="E65" s="33">
+      <c r="D65" s="42"/>
+      <c r="E65" s="32">
         <f>E42</f>
         <v>4687500</v>
       </c>
-      <c r="F65" s="43"/>
-    </row>
-    <row r="66" spans="2:6">
-      <c r="B66" s="34" t="s">
+      <c r="F65" s="42"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B66" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C66" s="42">
+      <c r="C66" s="41">
         <f>C64/C65</f>
         <v>4.7730220492866389</v>
       </c>
-      <c r="D66" s="44"/>
-      <c r="E66" s="42">
+      <c r="D66" s="43"/>
+      <c r="E66" s="41">
         <f>E64/E65</f>
         <v>1.3490069212806588</v>
       </c>
-      <c r="F66" s="44"/>
-    </row>
-    <row r="68" spans="2:6">
-      <c r="C68" s="47"/>
-    </row>
-    <row r="74" spans="2:6">
-      <c r="E74" s="47"/>
+      <c r="F66" s="43"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C68" s="46"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E74" s="46"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{33F5A827-26E5-42CE-A4A0-40E081EB0DA5}" scale="90" showGridLines="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <customSheetView guid="{EFBE3071-28B5-B948-A4E3-171BEC7CB2FF}" scale="178" showGridLines="0">
+      <selection activeCell="B23" sqref="B23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
+      <headerFooter>
+        <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Internal</oddFooter>
+      </headerFooter>
+    </customSheetView>
+    <customSheetView guid="{CE293B06-7009-4BB8-8F01-017503554FA1}" scale="90" showGridLines="0">
+      <selection activeCell="C9" sqref="C9"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{109AAEB2-61FC-4F63-8891-83BCCEFC65EE}" scale="90" showGridLines="0">
       <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
+      <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{CE293B06-7009-4BB8-8F01-017503554FA1}" scale="90" showGridLines="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <customSheetView guid="{33F5A827-26E5-42CE-A4A0-40E081EB0DA5}" scale="90" showGridLines="0">
+      <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId3"/>
+      <pageSetup orientation="portrait" r:id="rId4"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
@@ -3164,29 +3066,41 @@
     <mergeCell ref="E3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Internal</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{33F5A827-26E5-42CE-A4A0-40E081EB0DA5}">
+    <customSheetView guid="{EFBE3071-28B5-B948-A4E3-171BEC7CB2FF}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <headerFooter>
+        <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Internal</oddFooter>
+      </headerFooter>
+    </customSheetView>
+    <customSheetView guid="{CE293B06-7009-4BB8-8F01-017503554FA1}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{109AAEB2-61FC-4F63-8891-83BCCEFC65EE}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{CE293B06-7009-4BB8-8F01-017503554FA1}">
+    <customSheetView guid="{33F5A827-26E5-42CE-A4A0-40E081EB0DA5}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Internal</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>